--- a/app/Licenciatura_em_Musica.xlsx
+++ b/app/Licenciatura_em_Musica.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="234">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -192,9 +192,6 @@
     <t xml:space="preserve">Beatriz Alberto Bazima </t>
   </si>
   <si>
-    <t>Distrito de Chókwé</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -231,9 +228,6 @@
     <t>Ana Paula Namburete</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>100100236316I</t>
   </si>
   <si>
@@ -258,9 +252,6 @@
     <t>Minri Uiliamo Macuacua</t>
   </si>
   <si>
-    <t>Cidade de Xai-Xai</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -333,9 +324,6 @@
     <t>Evodia Tomas Panguene</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>11010038297C</t>
   </si>
   <si>
@@ -384,9 +372,6 @@
     <t>Julieta Albino Ussaca</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>080502392313F</t>
   </si>
   <si>
@@ -612,9 +597,6 @@
     <t>Julia Amalique</t>
   </si>
   <si>
-    <t>Distrito de Boane</t>
-  </si>
-  <si>
     <t>110102082355C</t>
   </si>
   <si>
@@ -636,9 +618,6 @@
     <t>Mariana FlorÊncia Dzimba</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>110100165352Q</t>
   </si>
   <si>
@@ -742,9 +721,6 @@
   </si>
   <si>
     <t xml:space="preserve">Ana Maria Come </t>
-  </si>
-  <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
   </si>
   <si>
     <t xml:space="preserve">110101095208A </t>
@@ -2028,7 +2004,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2044,7 +2020,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2060,7 +2036,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2076,7 +2052,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2092,7 +2068,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2107,9 +2083,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2117,7 +2091,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2128,7 +2102,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2137,7 +2111,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2149,7 +2123,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2157,7 +2131,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2253,7 +2227,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2296,7 +2270,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2623,7 +2597,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2639,7 +2613,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2655,7 +2629,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2671,7 +2645,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2687,7 +2661,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2702,9 +2676,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2712,7 +2684,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2723,7 +2695,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2732,7 +2704,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2744,7 +2716,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2752,7 +2724,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2848,7 +2820,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2891,7 +2863,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3218,7 +3190,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3234,7 +3206,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3250,7 +3222,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3266,7 +3238,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3282,7 +3254,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3297,9 +3269,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>113</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3307,7 +3277,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3318,7 +3288,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3327,7 +3297,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3339,7 +3309,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3347,7 +3317,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3443,7 +3413,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3486,7 +3456,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3813,7 +3783,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3829,7 +3799,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3845,7 +3815,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3861,7 +3831,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3877,7 +3847,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3892,9 +3862,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3902,7 +3870,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3913,7 +3881,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3922,7 +3890,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3934,7 +3902,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4038,7 +4006,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4081,7 +4049,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4408,7 +4376,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4424,7 +4392,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4440,7 +4408,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4456,7 +4424,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4472,7 +4440,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4487,9 +4455,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>113</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4497,7 +4463,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4508,7 +4474,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4517,7 +4483,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4529,7 +4495,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4537,7 +4503,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4633,7 +4599,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4676,7 +4642,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5003,7 +4969,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5019,7 +4985,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5035,7 +5001,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5051,7 +5017,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5067,7 +5033,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5082,9 +5048,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>113</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5092,7 +5056,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5103,7 +5067,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5112,7 +5076,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5124,7 +5088,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5132,7 +5096,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5228,7 +5192,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5271,7 +5235,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5598,7 +5562,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5614,7 +5578,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5630,7 +5594,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5646,7 +5610,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5662,7 +5626,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5677,9 +5641,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5687,7 +5649,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5698,7 +5660,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5707,7 +5669,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5719,7 +5681,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5727,7 +5689,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5823,7 +5785,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5866,7 +5828,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6193,7 +6155,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6209,7 +6171,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6225,7 +6187,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6241,7 +6203,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6257,7 +6219,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6272,9 +6234,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6282,7 +6242,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6293,7 +6253,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6302,7 +6262,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6314,7 +6274,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6322,7 +6282,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6418,7 +6378,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6461,7 +6421,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6788,7 +6748,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6804,7 +6764,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6820,7 +6780,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6836,7 +6796,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6852,7 +6812,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6867,9 +6827,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>113</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6877,7 +6835,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6888,7 +6846,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6897,7 +6855,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6909,7 +6867,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6917,7 +6875,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7013,7 +6971,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7056,7 +7014,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7383,7 +7341,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7399,7 +7357,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7415,7 +7373,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7431,7 +7389,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7447,7 +7405,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7462,9 +7420,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>189</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7472,7 +7428,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7483,7 +7439,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7492,7 +7448,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7504,7 +7460,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7512,7 +7468,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7608,7 +7564,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7651,7 +7607,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8057,9 +8013,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8067,7 +8021,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8078,7 +8032,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8087,7 +8041,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8099,7 +8053,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8107,7 +8061,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8203,7 +8157,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8246,7 +8200,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8573,7 +8527,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8589,7 +8543,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8605,7 +8559,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8621,7 +8575,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8637,7 +8591,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8652,9 +8606,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>197</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8662,7 +8614,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8673,7 +8625,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8682,7 +8634,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8694,7 +8646,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8702,7 +8654,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8798,7 +8750,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8841,7 +8793,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9168,7 +9120,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9184,7 +9136,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9200,7 +9152,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9216,7 +9168,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9232,7 +9184,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9247,9 +9199,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9257,7 +9207,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9268,7 +9218,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9277,7 +9227,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9289,7 +9239,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9297,7 +9247,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9393,7 +9343,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9436,7 +9386,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9763,7 +9713,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9779,7 +9729,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9795,7 +9745,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9811,7 +9761,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9827,7 +9777,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9842,9 +9792,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9852,7 +9800,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9863,7 +9811,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9872,7 +9820,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9884,7 +9832,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9892,7 +9840,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9988,7 +9936,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10031,7 +9979,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10358,7 +10306,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10374,7 +10322,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10390,7 +10338,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10406,7 +10354,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10422,7 +10370,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10437,9 +10385,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>113</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10447,7 +10393,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10458,7 +10404,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10467,7 +10413,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10479,7 +10425,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10487,7 +10433,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10583,7 +10529,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10626,7 +10572,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10953,7 +10899,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10969,7 +10915,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10985,7 +10931,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11001,7 +10947,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11017,7 +10963,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11032,9 +10978,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11042,7 +10986,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11053,7 +10997,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11062,7 +11006,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11074,7 +11018,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11178,7 +11122,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11221,7 +11165,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11548,7 +11492,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11564,7 +11508,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11580,7 +11524,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11596,7 +11540,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11612,7 +11556,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11627,9 +11571,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>233</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11637,7 +11579,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11648,7 +11590,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11657,7 +11599,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11669,7 +11611,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11677,7 +11619,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11773,7 +11715,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11816,7 +11758,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12143,7 +12085,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12159,7 +12101,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12175,7 +12117,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12191,7 +12133,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12207,7 +12149,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12222,9 +12164,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12232,7 +12172,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12243,7 +12183,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12252,7 +12192,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12264,7 +12204,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12368,7 +12308,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12411,7 +12351,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12794,7 +12734,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12810,7 +12750,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12826,7 +12766,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12842,7 +12782,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12858,7 +12798,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12873,9 +12813,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12883,7 +12821,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12894,7 +12832,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12903,7 +12841,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12915,7 +12853,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12923,7 +12861,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13019,7 +12957,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13062,7 +13000,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13389,7 +13327,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13405,7 +13343,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13421,7 +13359,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13437,7 +13375,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13453,7 +13391,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13468,9 +13406,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13478,7 +13414,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13489,7 +13425,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13498,7 +13434,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13510,7 +13446,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13518,7 +13454,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13614,7 +13550,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13657,7 +13593,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13984,7 +13920,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14000,7 +13936,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14016,7 +13952,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14032,7 +13968,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14048,7 +13984,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14063,9 +13999,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14073,7 +14007,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14084,7 +14018,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14093,7 +14027,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14105,7 +14039,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14113,7 +14047,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14209,7 +14143,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14252,7 +14186,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14579,7 +14513,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14595,7 +14529,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14611,7 +14545,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14627,7 +14561,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14643,7 +14577,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14658,9 +14592,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14668,7 +14600,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14679,7 +14611,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14688,7 +14620,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14700,7 +14632,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14804,7 +14736,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14847,7 +14779,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15174,7 +15106,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15190,7 +15122,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15206,7 +15138,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15222,7 +15154,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15238,7 +15170,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15253,9 +15185,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>96</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15263,7 +15193,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15274,7 +15204,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15283,7 +15213,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15295,7 +15225,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15303,7 +15233,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15399,7 +15329,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15442,7 +15372,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15769,7 +15699,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15785,7 +15715,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15801,7 +15731,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15817,7 +15747,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15833,7 +15763,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15848,9 +15778,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15858,7 +15786,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15869,7 +15797,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15878,7 +15806,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15890,7 +15818,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15898,7 +15826,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15994,7 +15922,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16037,7 +15965,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16364,7 +16292,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16380,7 +16308,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16396,7 +16324,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16412,7 +16340,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16428,7 +16356,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16443,9 +16371,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>113</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16453,7 +16379,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16464,7 +16390,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16473,7 +16399,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16485,7 +16411,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16493,7 +16419,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16589,7 +16515,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16632,7 +16558,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
